--- a/src/main/resources/filedatestare/excelFile_WithValidationError.xlsx
+++ b/src/main/resources/filedatestare/excelFile_WithValidationError.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio.vergine\Desktop\filedatestare\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\corso_its\projects\Fincons-Employees-BE\src\main\resources\filedatestare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EE9727-3482-4913-8013-466B4E746BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE57483-BA72-4284-8711-2EEAE6706AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28152" yWindow="3000" windowWidth="17280" windowHeight="8880" xr2:uid="{1B7CC18F-ED34-407C-8F65-7EC2BE0F0B8A}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1B7CC18F-ED34-407C-8F65-7EC2BE0F0B8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,123 +74,81 @@
     <t>M</t>
   </si>
   <si>
-    <t>giovanni@moretti.it</t>
-  </si>
-  <si>
     <t>Laura</t>
   </si>
   <si>
     <t>F</t>
   </si>
   <si>
-    <t>laura@ricci.it</t>
-  </si>
-  <si>
     <t>Alessandro</t>
   </si>
   <si>
     <t>Galli</t>
   </si>
   <si>
-    <t>alessandro@galli.it</t>
-  </si>
-  <si>
     <t>Simona</t>
   </si>
   <si>
     <t>Bianco</t>
   </si>
   <si>
-    <t>simona@bianco.it</t>
-  </si>
-  <si>
     <t>Daniele</t>
   </si>
   <si>
     <t>Ferrari</t>
   </si>
   <si>
-    <t>daniele@ferrari.it</t>
-  </si>
-  <si>
     <t>Elena</t>
   </si>
   <si>
     <t>Rossini</t>
   </si>
   <si>
-    <t>elena@rossini.it</t>
-  </si>
-  <si>
     <t>Roberto</t>
   </si>
   <si>
     <t>Greco</t>
   </si>
   <si>
-    <t>roberto@greco.it</t>
-  </si>
-  <si>
     <t>Silvia</t>
   </si>
   <si>
     <t>Conti</t>
   </si>
   <si>
-    <t>silvia@conti.it</t>
-  </si>
-  <si>
     <t>Marco</t>
   </si>
   <si>
     <t>Marini</t>
   </si>
   <si>
-    <t>marco@marini.it</t>
-  </si>
-  <si>
     <t>Santoro</t>
   </si>
   <si>
-    <t>valentina@santoro.it</t>
-  </si>
-  <si>
     <t>Nicola</t>
   </si>
   <si>
     <t>Gallo</t>
   </si>
   <si>
-    <t>nicola@gallo.it</t>
-  </si>
-  <si>
     <t>Giorgia</t>
   </si>
   <si>
     <t>Barbieri</t>
   </si>
   <si>
-    <t>giorgia@barbieri.it</t>
-  </si>
-  <si>
     <t>Luigi</t>
   </si>
   <si>
     <t>Fontana</t>
   </si>
   <si>
-    <t>luigi@fontana.it</t>
-  </si>
-  <si>
     <t>Elisa</t>
   </si>
   <si>
     <t>Morelli</t>
   </si>
   <si>
-    <t>elisa@morelli.it</t>
-  </si>
-  <si>
     <t>Francesco</t>
   </si>
   <si>
@@ -203,49 +161,91 @@
     <t>Lombardi</t>
   </si>
   <si>
-    <t>martina@lombardi.it</t>
-  </si>
-  <si>
     <t>Paolo</t>
   </si>
   <si>
     <t>Colombo</t>
   </si>
   <si>
-    <t>paolo@colombo.it</t>
-  </si>
-  <si>
     <t>Federica</t>
   </si>
   <si>
     <t>Caruso</t>
   </si>
   <si>
-    <t>federica@caruso.it</t>
-  </si>
-  <si>
     <t>Riccardo</t>
   </si>
   <si>
     <t>Gatti</t>
   </si>
   <si>
-    <t>riccardo@gatti.it</t>
-  </si>
-  <si>
     <t>Ricci2</t>
   </si>
   <si>
     <t>Valentina1</t>
   </si>
   <si>
-    <t>francescoriva.it</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>giovanni@gmail.com</t>
+  </si>
+  <si>
+    <t>laura@gmail.com</t>
+  </si>
+  <si>
+    <t>alessandro@gmail.com</t>
+  </si>
+  <si>
+    <t>simona@gmail.com</t>
+  </si>
+  <si>
+    <t>daniele@gmail.com</t>
+  </si>
+  <si>
+    <t>elena@gmail.com</t>
+  </si>
+  <si>
+    <t>roberto@gmail.com</t>
+  </si>
+  <si>
+    <t>silvia@gmail.com</t>
+  </si>
+  <si>
+    <t>marco@gmail.com</t>
+  </si>
+  <si>
+    <t>valentina@gmail.com</t>
+  </si>
+  <si>
+    <t>nicola@gmail.com</t>
+  </si>
+  <si>
+    <t>giorgia@gmail.com</t>
+  </si>
+  <si>
+    <t>elisa@gmail.com</t>
+  </si>
+  <si>
+    <t>francesco@gmail.com</t>
+  </si>
+  <si>
+    <t>martina@gmail.com</t>
+  </si>
+  <si>
+    <t>paolo@gmail.com</t>
+  </si>
+  <si>
+    <t>riccardo@gmail.com</t>
+  </si>
+  <si>
+    <t>luigigmail.com</t>
+  </si>
+  <si>
+    <t>federica@gmailcom</t>
   </si>
 </sst>
 </file>
@@ -255,10 +255,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -281,14 +289,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -603,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF4DD18C-F0FD-4DD9-9DCB-0471B8CD6734}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -657,8 +668,8 @@
       <c r="D2" s="1">
         <v>45000</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
+      <c r="E2" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="F2" s="1">
         <v>44814</v>
@@ -675,19 +686,19 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
       </c>
       <c r="D3" s="1">
         <v>44794</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="F3" s="1">
         <v>44531</v>
@@ -696,7 +707,7 @@
         <v>45580</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -704,10 +715,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -716,7 +727,7 @@
         <v>45265</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="F4" s="1">
         <v>45066</v>
@@ -725,7 +736,7 @@
         <v>46295</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -733,19 +744,19 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1">
         <v>45430</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="F5" s="1">
         <v>45260</v>
@@ -757,15 +768,15 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -774,7 +785,7 @@
         <v>44864</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="F6" s="1">
         <v>44666</v>
@@ -783,7 +794,7 @@
         <v>45869</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -791,19 +802,19 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1">
         <v>45324</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="F7" s="1">
         <v>45160</v>
@@ -815,15 +826,15 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -832,7 +843,7 @@
         <v>44724</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="F8" s="1">
         <v>44525</v>
@@ -841,7 +852,7 @@
         <v>45534</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -849,19 +860,19 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="1">
         <v>45023</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="F9" s="1">
         <v>44849</v>
@@ -870,18 +881,18 @@
         <v>45981</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -890,7 +901,7 @@
         <v>45545</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F10" s="1">
         <v>45021</v>
@@ -907,19 +918,19 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="1">
         <v>44910</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="F11" s="1">
         <v>44711</v>
@@ -928,18 +939,18 @@
         <v>45940</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
@@ -948,7 +959,7 @@
         <v>45127</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="F12" s="1">
         <v>44936</v>
@@ -965,19 +976,19 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="1">
         <v>45299</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="F13" s="1">
         <v>45125</v>
@@ -986,7 +997,7 @@
         <v>46392</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -994,10 +1005,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -1006,7 +1017,7 @@
         <v>44676</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="F14" s="1">
         <v>44479</v>
@@ -1015,27 +1026,27 @@
         <v>45657</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="1">
         <v>45199</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="F15" s="1">
         <v>45000</v>
@@ -1052,10 +1063,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
@@ -1064,7 +1075,7 @@
         <v>45363</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F16" s="1">
         <v>45170</v>
@@ -1076,24 +1087,24 @@
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D17" s="1">
         <v>44747</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F17" s="1">
         <v>44550</v>
@@ -1110,10 +1121,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
@@ -1122,7 +1133,7 @@
         <v>44946</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F18" s="1">
         <v>44714</v>
@@ -1131,27 +1142,27 @@
         <v>45626</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="1">
         <v>45471</v>
       </c>
-      <c r="E19" t="s">
-        <v>61</v>
+      <c r="E19" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="F19" s="1">
         <v>44941</v>
@@ -1160,7 +1171,7 @@
         <v>46466</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1168,19 +1179,19 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D20" s="1">
         <v>44887</v>
       </c>
       <c r="E20" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F20" s="1">
         <v>44689</v>
@@ -1192,11 +1203,14 @@
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E19" r:id="rId1" xr:uid="{00F740E6-70CD-4A56-9686-C8D69AB33C3E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>